--- a/Code/Output/December_2021/YTD_Engines_and_Drivers.xlsx
+++ b/Code/Output/December_2021/YTD_Engines_and_Drivers.xlsx
@@ -1,24 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Projects\project_files\USAI\Code\Output\December_2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.1.52\home$\BryanP\Projects\project_files\USAI\Code\Output\December_2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BED23FB-50EF-4065-9DDE-74CDF1E9295C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{629A36DD-E9F3-43DD-B3EC-4EF4804BA9DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{ECEDF41B-4242-4B3D-98AA-DBEB5D702164}"/>
+    <workbookView xWindow="8775" yWindow="5340" windowWidth="11265" windowHeight="8880" activeTab="1" xr2:uid="{ECEDF41B-4242-4B3D-98AA-DBEB5D702164}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -104,8 +101,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -547,7 +545,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="105">
+  <cellStyleXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -653,18 +651,23 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="105">
+  <cellStyles count="106">
     <cellStyle name="20% - Accent1" xfId="18" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent1 2" xfId="47" xr:uid="{575BADB6-BE73-4DC8-A260-1CF6B0A9DAED}"/>
     <cellStyle name="20% - Accent1 3" xfId="67" xr:uid="{37B943FD-A595-40E8-9B00-4C7F2A720D51}"/>
@@ -761,6 +764,7 @@
     <cellStyle name="Normal 4" xfId="65" xr:uid="{1FA9C1BD-BB98-48BA-B71B-C6ABFEB38A25}"/>
     <cellStyle name="Normal 5" xfId="85" xr:uid="{0D0AF526-F2DC-44B0-9896-1782472E057C}"/>
     <cellStyle name="Normal 6" xfId="41" xr:uid="{C309D016-5341-4C31-A177-A5A3A63FF2DF}"/>
+    <cellStyle name="Note" xfId="105" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Note 2" xfId="44" xr:uid="{950AF055-6CE8-4E46-A1C5-504A21F607E5}"/>
     <cellStyle name="Note 3" xfId="46" xr:uid="{5B071FFD-2871-460F-9DAA-F1DBEB2BC05E}"/>
     <cellStyle name="Note 4" xfId="66" xr:uid="{758A32B7-E2EC-43FD-BFFD-73B89F80D42D}"/>
@@ -1035,43 +1039,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>131</c:v>
+                  <c:v>148</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>208</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>209</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>144</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>270</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>261</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>179</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>113</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>152</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>165</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>137</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2077</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1652,46 +1626,16 @@
             <c:numRef>
               <c:f>Sheet1!$E$3:$E$15</c:f>
               <c:numCache>
-                <c:formatCode>"$"#,##0</c:formatCode>
+                <c:formatCode>"$"#,##0.00</c:formatCode>
                 <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>4295.53</c:v>
+                <c:pt idx="0" formatCode="&quot;$&quot;#,##0">
+                  <c:v>5081</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3181.71</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6786.41</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5847.04</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4652.22</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10996.56</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6413.55</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5319.29</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4601.3500000000004</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4156.82</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6084.8119999999999</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5106.1229999999996</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>67441.415000000008</c:v>
+                  <c:v>3881.8833</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="&quot;$&quot;#,##0">
+                  <c:v>8962.8832999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1876,6 +1820,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1732937488"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -2075,8 +2020,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-5.5923493772093146E-18"/>
-                  <c:y val="-3.6481619042902654E-2"/>
+                  <c:x val="-3.6463077640706862E-3"/>
+                  <c:y val="-0.14130342197791307"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="ctr"/>
@@ -2098,7 +2043,7 @@
               <c:layout>
                 <c:manualLayout>
                   <c:x val="0"/>
-                  <c:y val="-3.5526832730814306E-2"/>
+                  <c:y val="-0.29548490400964039"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="ctr"/>
@@ -2497,43 +2442,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>149</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>142</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>290</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>190</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>273</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>177</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>132</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>158</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>185</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>107</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>222</c:v>
+                  <c:v>260</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2094</c:v>
+                  <c:v>372</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2762,8 +2677,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="4.8806522011693278E-3"/>
-                  <c:y val="-4.1928721174004195E-2"/>
+                  <c:x val="9.7424366867944132E-3"/>
+                  <c:y val="-0.14675052410901468"/>
                 </c:manualLayout>
               </c:layout>
               <c:showLegendKey val="0"/>
@@ -2783,8 +2698,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="7.3209783017540086E-3"/>
-                  <c:y val="-4.6121593291404611E-2"/>
+                  <c:x val="1.7044431169289553E-2"/>
+                  <c:y val="-0.27253668763102723"/>
                 </c:manualLayout>
               </c:layout>
               <c:showLegendKey val="0"/>
@@ -3141,43 +3056,13 @@
                 <c:formatCode>"$"#,##0</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>2347.9342999999999</c:v>
+                  <c:v>2081</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2452.2770999999998</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4198.9723000000004</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2358.1433000000002</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>864.09789999999998</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5089.3418000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2522.2936</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1989.8773000000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2713.2966999999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2664.9367999999999</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1494.2565</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3270.1219999999998</c:v>
+                  <c:v>4360.9445999999998</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>31965.549599999998</c:v>
+                  <c:v>6441.9445999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3362,6 +3247,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1784497152"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -4619,19 +4505,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Drivers YTD"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4934,7 +4807,7 @@
   <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4943,172 +4816,125 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3">
-        <v>131</v>
+      <c r="B3" s="3">
+        <v>148</v>
       </c>
-      <c r="E3" s="2">
-        <v>4295.53</v>
+      <c r="C3" s="3"/>
+      <c r="E3" s="1">
+        <v>5081</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>108</v>
+      <c r="B4" s="5">
+        <v>122</v>
       </c>
-      <c r="E4" s="2">
-        <v>3181.71</v>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="4">
+        <v>3881.8833</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
-        <v>208</v>
-      </c>
-      <c r="E5" s="2">
-        <v>6786.41</v>
-      </c>
+      <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
-      <c r="B6">
-        <v>209</v>
-      </c>
-      <c r="E6" s="2">
-        <v>5847.04</v>
-      </c>
+      <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B7">
-        <v>144</v>
-      </c>
-      <c r="E7" s="2">
-        <v>4652.22</v>
-      </c>
+      <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>270</v>
-      </c>
-      <c r="E8" s="2">
-        <v>10996.56</v>
-      </c>
+      <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
-      <c r="B9">
-        <v>261</v>
-      </c>
-      <c r="E9" s="2">
-        <v>6413.55</v>
-      </c>
+      <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>1</v>
       </c>
-      <c r="B10">
-        <v>179</v>
-      </c>
-      <c r="E10" s="2">
-        <v>5319.29</v>
-      </c>
+      <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B11">
-        <v>113</v>
-      </c>
-      <c r="E11" s="2">
-        <v>4601.3500000000004</v>
-      </c>
+      <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="B12">
-        <v>152</v>
-      </c>
-      <c r="E12" s="2">
-        <v>4156.82</v>
-      </c>
+      <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>9</v>
       </c>
-      <c r="B13">
-        <v>165</v>
-      </c>
-      <c r="E13" s="2">
-        <v>6084.8119999999999</v>
-      </c>
+      <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>2</v>
       </c>
-      <c r="B14">
-        <v>137</v>
-      </c>
-      <c r="E14" s="2">
-        <v>5106.1229999999996</v>
-      </c>
+      <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -5116,11 +4942,11 @@
       </c>
       <c r="B15">
         <f>SUM(B3:B14)</f>
-        <v>2077</v>
+        <v>270</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="1">
         <f>SUM(E3:E14)</f>
-        <v>67441.415000000008</v>
+        <v>8962.8832999999995</v>
       </c>
     </row>
   </sheetData>
@@ -5129,7 +4955,8 @@
     <mergeCell ref="J1:N1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5138,7 +4965,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="E3" sqref="E3:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5147,28 +4974,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -5177,132 +5004,84 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>149</v>
+        <v>112</v>
       </c>
-      <c r="E3" s="2">
-        <v>2347.9342999999999</v>
+      <c r="E3" s="1">
+        <v>2081</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>142</v>
+      <c r="B4" s="6">
+        <v>260</v>
       </c>
-      <c r="E4" s="2">
-        <v>2452.2770999999998</v>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="1">
+        <v>4360.9445999999998</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
-        <v>290</v>
-      </c>
-      <c r="E5" s="2">
-        <v>4198.9723000000004</v>
-      </c>
+      <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
-      <c r="B6">
-        <v>190</v>
-      </c>
-      <c r="E6" s="2">
-        <v>2358.1433000000002</v>
-      </c>
+      <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B7">
-        <v>69</v>
-      </c>
-      <c r="E7" s="2">
-        <v>864.09789999999998</v>
-      </c>
+      <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>273</v>
-      </c>
-      <c r="E8" s="2">
-        <v>5089.3418000000001</v>
-      </c>
+      <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
-      <c r="B9">
-        <v>177</v>
-      </c>
-      <c r="E9" s="2">
-        <v>2522.2936</v>
-      </c>
+      <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>1</v>
       </c>
-      <c r="B10">
-        <v>132</v>
-      </c>
-      <c r="E10" s="2">
-        <v>1989.8773000000001</v>
-      </c>
+      <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B11">
-        <v>158</v>
-      </c>
-      <c r="E11" s="2">
-        <v>2713.2966999999999</v>
-      </c>
+      <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="B12">
-        <v>185</v>
-      </c>
-      <c r="E12" s="2">
-        <v>2664.9367999999999</v>
-      </c>
+      <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>9</v>
       </c>
-      <c r="B13">
-        <v>107</v>
-      </c>
-      <c r="E13" s="2">
-        <v>1494.2565</v>
-      </c>
+      <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>2</v>
       </c>
-      <c r="B14">
-        <v>222</v>
-      </c>
-      <c r="E14" s="2">
-        <v>3270.1219999999998</v>
-      </c>
+      <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -5310,11 +5089,11 @@
       </c>
       <c r="B15">
         <f>SUM(B3:B14)</f>
-        <v>2094</v>
+        <v>372</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="1">
         <f>SUM(E3:E14)</f>
-        <v>31965.549599999998</v>
+        <v>6441.9445999999998</v>
       </c>
     </row>
   </sheetData>
@@ -5322,6 +5101,7 @@
     <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Code/Output/December_2021/YTD_Engines_and_Drivers.xlsx
+++ b/Code/Output/December_2021/YTD_Engines_and_Drivers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.1.52\home$\BryanP\Projects\project_files\USAI\Code\Output\December_2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{629A36DD-E9F3-43DD-B3EC-4EF4804BA9DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8342631-D9B1-45D3-A4A9-A3FB28448ACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8775" yWindow="5340" windowWidth="11265" windowHeight="8880" activeTab="1" xr2:uid="{ECEDF41B-4242-4B3D-98AA-DBEB5D702164}"/>
+    <workbookView xWindow="8775" yWindow="5340" windowWidth="11460" windowHeight="8070" activeTab="1" xr2:uid="{ECEDF41B-4242-4B3D-98AA-DBEB5D702164}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -101,9 +101,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
-    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -653,18 +652,24 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="106">
@@ -899,7 +904,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="2.8874527317552353E-2"/>
+          <c:y val="0.10437898051531284"/>
+          <c:w val="0.91043620615651077"/>
+          <c:h val="0.81265333343984181"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -1044,8 +1059,14 @@
                 <c:pt idx="1">
                   <c:v>122</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>85</c:v>
+                </c:pt>
                 <c:pt idx="12">
-                  <c:v>270</c:v>
+                  <c:v>483</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1626,7 +1647,7 @@
             <c:numRef>
               <c:f>Sheet1!$E$3:$E$15</c:f>
               <c:numCache>
-                <c:formatCode>"$"#,##0.00</c:formatCode>
+                <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0" formatCode="&quot;$&quot;#,##0">
                   <c:v>5081</c:v>
@@ -1634,8 +1655,14 @@
                 <c:pt idx="1">
                   <c:v>3881.8833</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>4402.3</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="&quot;$&quot;#,##0">
+                  <c:v>2309.9286000000006</c:v>
+                </c:pt>
                 <c:pt idx="12" formatCode="&quot;$&quot;#,##0">
-                  <c:v>8962.8832999999995</c:v>
+                  <c:v>15675.111900000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2447,8 +2474,14 @@
                 <c:pt idx="1">
                   <c:v>260</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>303</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>102</c:v>
+                </c:pt>
                 <c:pt idx="12">
-                  <c:v>372</c:v>
+                  <c:v>777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3061,8 +3094,14 @@
                 <c:pt idx="1">
                   <c:v>4360.9445999999998</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>6420</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1441.0014999999999</c:v>
+                </c:pt>
                 <c:pt idx="12">
-                  <c:v>6441.9445999999998</c:v>
+                  <c:v>14302.946099999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4807,7 +4846,7 @@
   <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E4" sqref="E4:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4816,18 +4855,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -4867,12 +4906,12 @@
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>122</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="4">
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="8">
         <v>3881.8833</v>
       </c>
     </row>
@@ -4880,19 +4919,29 @@
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="1"/>
+      <c r="B5" s="7">
+        <v>128</v>
+      </c>
+      <c r="E5" s="8">
+        <v>4402.3</v>
+      </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="1"/>
+      <c r="B6" s="6">
+        <v>85</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2309.9286000000006</v>
+      </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="1"/>
+      <c r="E7" s="6"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -4942,11 +4991,11 @@
       </c>
       <c r="B15">
         <f>SUM(B3:B14)</f>
-        <v>270</v>
+        <v>483</v>
       </c>
       <c r="E15" s="1">
         <f>SUM(E3:E14)</f>
-        <v>8962.8832999999995</v>
+        <v>15675.111900000002</v>
       </c>
     </row>
   </sheetData>
@@ -4965,7 +5014,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E15"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4974,13 +5023,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -5014,11 +5063,11 @@
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <v>260</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
       <c r="E4" s="1">
         <v>4360.9445999999998</v>
       </c>
@@ -5027,13 +5076,23 @@
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="1"/>
+      <c r="B5">
+        <v>303</v>
+      </c>
+      <c r="E5" s="1">
+        <v>6420</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="1"/>
+      <c r="B6" s="10">
+        <v>102</v>
+      </c>
+      <c r="E6" s="11">
+        <v>1441.0014999999999</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -5089,11 +5148,11 @@
       </c>
       <c r="B15">
         <f>SUM(B3:B14)</f>
-        <v>372</v>
+        <v>777</v>
       </c>
       <c r="E15" s="1">
         <f>SUM(E3:E14)</f>
-        <v>6441.9445999999998</v>
+        <v>14302.946099999999</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Output/December_2021/YTD_Engines_and_Drivers.xlsx
+++ b/Code/Output/December_2021/YTD_Engines_and_Drivers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.1.52\home$\BryanP\Projects\project_files\USAI\Code\Output\December_2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8342631-D9B1-45D3-A4A9-A3FB28448ACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC150DDB-5111-42E9-96E0-E587567DCED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8775" yWindow="5340" windowWidth="11460" windowHeight="8070" activeTab="1" xr2:uid="{ECEDF41B-4242-4B3D-98AA-DBEB5D702164}"/>
+    <workbookView xWindow="1350" yWindow="2640" windowWidth="16005" windowHeight="9435" xr2:uid="{ECEDF41B-4242-4B3D-98AA-DBEB5D702164}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -101,7 +101,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
@@ -652,7 +653,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -664,13 +665,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="106">
     <cellStyle name="20% - Accent1" xfId="18" builtinId="30" customBuiltin="1"/>
@@ -1065,8 +1070,11 @@
                 <c:pt idx="3">
                   <c:v>85</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>131</c:v>
+                </c:pt>
                 <c:pt idx="12">
-                  <c:v>483</c:v>
+                  <c:v>614</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1661,8 +1669,11 @@
                 <c:pt idx="3" formatCode="&quot;$&quot;#,##0">
                   <c:v>2309.9286000000006</c:v>
                 </c:pt>
+                <c:pt idx="4" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)">
+                  <c:v>3938</c:v>
+                </c:pt>
                 <c:pt idx="12" formatCode="&quot;$&quot;#,##0">
-                  <c:v>15675.111900000002</c:v>
+                  <c:v>19613.111900000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2480,8 +2491,11 @@
                 <c:pt idx="3">
                   <c:v>102</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>88</c:v>
+                </c:pt>
                 <c:pt idx="12">
-                  <c:v>777</c:v>
+                  <c:v>865</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3100,8 +3114,11 @@
                 <c:pt idx="3">
                   <c:v>1441.0014999999999</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>1211.7982</c:v>
+                </c:pt>
                 <c:pt idx="12">
-                  <c:v>14302.946099999999</c:v>
+                  <c:v>15514.744299999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4845,8 +4862,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E9F1394-A462-4C81-AFF4-517CBE37AE55}">
   <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E5"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4855,18 +4872,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -4941,7 +4958,14 @@
       <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="6"/>
+      <c r="B7" s="14">
+        <v>131</v>
+      </c>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="15">
+        <v>3938</v>
+      </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -4991,11 +5015,11 @@
       </c>
       <c r="B15">
         <f>SUM(B3:B14)</f>
-        <v>483</v>
+        <v>614</v>
       </c>
       <c r="E15" s="1">
         <f>SUM(E3:E14)</f>
-        <v>15675.111900000002</v>
+        <v>19613.111900000004</v>
       </c>
     </row>
   </sheetData>
@@ -5013,8 +5037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB30F077-E69C-43D0-9003-AB274B6EC4F6}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5023,13 +5047,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -5087,10 +5111,10 @@
       <c r="A6" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="9">
         <v>102</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="10">
         <v>1441.0014999999999</v>
       </c>
     </row>
@@ -5098,7 +5122,14 @@
       <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="1"/>
+      <c r="B7" s="11">
+        <v>88</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="12">
+        <v>1211.7982</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -5148,11 +5179,11 @@
       </c>
       <c r="B15">
         <f>SUM(B3:B14)</f>
-        <v>777</v>
+        <v>865</v>
       </c>
       <c r="E15" s="1">
         <f>SUM(E3:E14)</f>
-        <v>14302.946099999999</v>
+        <v>15514.744299999998</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Output/December_2021/YTD_Engines_and_Drivers.xlsx
+++ b/Code/Output/December_2021/YTD_Engines_and_Drivers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.1.52\home$\BryanP\Projects\project_files\USAI\Code\Output\December_2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC150DDB-5111-42E9-96E0-E587567DCED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB743041-7AA0-4980-80B5-CDAA4AAA9238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1350" yWindow="2640" windowWidth="16005" windowHeight="9435" xr2:uid="{ECEDF41B-4242-4B3D-98AA-DBEB5D702164}"/>
+    <workbookView xWindow="11235" yWindow="5535" windowWidth="11565" windowHeight="7290" activeTab="1" xr2:uid="{ECEDF41B-4242-4B3D-98AA-DBEB5D702164}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -653,7 +653,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -671,11 +671,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="106">
     <cellStyle name="20% - Accent1" xfId="18" builtinId="30" customBuiltin="1"/>
@@ -1073,8 +1076,11 @@
                 <c:pt idx="4">
                   <c:v>131</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>228</c:v>
+                </c:pt>
                 <c:pt idx="12">
-                  <c:v>614</c:v>
+                  <c:v>842</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1672,8 +1678,11 @@
                 <c:pt idx="4" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)">
                   <c:v>3938</c:v>
                 </c:pt>
+                <c:pt idx="5" formatCode="&quot;$&quot;#,##0">
+                  <c:v>8006.9739000000018</c:v>
+                </c:pt>
                 <c:pt idx="12" formatCode="&quot;$&quot;#,##0">
-                  <c:v>19613.111900000004</c:v>
+                  <c:v>27620.085800000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2494,8 +2503,11 @@
                 <c:pt idx="4">
                   <c:v>88</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>69</c:v>
+                </c:pt>
                 <c:pt idx="12">
-                  <c:v>865</c:v>
+                  <c:v>934</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3117,8 +3129,11 @@
                 <c:pt idx="4">
                   <c:v>1211.7982</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>1590.9047999999996</c:v>
+                </c:pt>
                 <c:pt idx="12">
-                  <c:v>15514.744299999998</c:v>
+                  <c:v>17105.649099999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4862,8 +4877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E9F1394-A462-4C81-AFF4-517CBE37AE55}">
   <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:E7"/>
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4872,18 +4887,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -4958,12 +4973,12 @@
       <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" s="13">
         <v>131</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="15">
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="14">
         <v>3938</v>
       </c>
     </row>
@@ -4971,7 +4986,14 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="1"/>
+      <c r="B8" s="15">
+        <v>228</v>
+      </c>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="12">
+        <v>8006.9739000000018</v>
+      </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -5015,11 +5037,11 @@
       </c>
       <c r="B15">
         <f>SUM(B3:B14)</f>
-        <v>614</v>
+        <v>842</v>
       </c>
       <c r="E15" s="1">
         <f>SUM(E3:E14)</f>
-        <v>19613.111900000004</v>
+        <v>27620.085800000004</v>
       </c>
     </row>
   </sheetData>
@@ -5037,8 +5059,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB30F077-E69C-43D0-9003-AB274B6EC4F6}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:E7"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5047,13 +5069,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -5135,7 +5157,14 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="1"/>
+      <c r="B8" s="17">
+        <v>69</v>
+      </c>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="18">
+        <v>1590.9047999999996</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -5179,11 +5208,11 @@
       </c>
       <c r="B15">
         <f>SUM(B3:B14)</f>
-        <v>865</v>
+        <v>934</v>
       </c>
       <c r="E15" s="1">
         <f>SUM(E3:E14)</f>
-        <v>15514.744299999998</v>
+        <v>17105.649099999999</v>
       </c>
     </row>
   </sheetData>
